--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_176.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_176.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.14, 22.68)]</t>
+          <t>[('0:00:09.240000', '0:00:17.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4869565217391305</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2342342342342342</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min', 'C:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[('0:00:49', '0:01:02.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11.129160', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:09.060000', '0:01:12.500000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:25', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_218</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.46875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.78, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
